--- a/data/analysis/social_media_analytics/pivot_tables/country-governance_simpl/museum_activity_groups__var2-country-governance_simpl.xlsx
+++ b/data/analysis/social_media_analytics/pivot_tables/country-governance_simpl/museum_activity_groups__var2-country-governance_simpl.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="28">
   <si>
     <t>msg_count_twitter</t>
+  </si>
+  <si>
+    <t>msg_count_twitter_engage</t>
   </si>
   <si>
     <t>msg_count_facebook</t>
@@ -452,13 +455,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB24"/>
+  <dimension ref="A1:AO24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:41">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -490,111 +493,165 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
+      <c r="AC1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:41">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="AO2" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:41">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:41">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="E4">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -609,13 +666,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K4">
         <v>7</v>
       </c>
       <c r="L4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -624,16 +681,16 @@
         <v>14.3</v>
       </c>
       <c r="O4">
-        <v>-1.6</v>
+        <v>-1.5</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -648,34 +705,73 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X4">
         <v>7</v>
       </c>
+      <c r="Y4">
+        <v>4</v>
+      </c>
       <c r="Z4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>14.3</v>
       </c>
       <c r="AB4">
+        <v>-1.5</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>7</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
         <v>-1.3</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:41">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5">
-        <v>1752</v>
+        <v>1284</v>
       </c>
       <c r="D5">
-        <v>109.5</v>
+        <v>80.2</v>
       </c>
       <c r="E5">
-        <v>411.6</v>
+        <v>299.3</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -690,13 +786,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1650</v>
+        <v>1200</v>
       </c>
       <c r="K5">
         <v>16</v>
       </c>
       <c r="L5">
-        <v>876</v>
+        <v>642</v>
       </c>
       <c r="M5">
         <v>2</v>
@@ -705,16 +801,16 @@
         <v>12.5</v>
       </c>
       <c r="O5">
-        <v>-1.7</v>
+        <v>-1.6</v>
       </c>
       <c r="P5">
-        <v>842</v>
+        <v>463</v>
       </c>
       <c r="Q5">
-        <v>52.6</v>
+        <v>28.9</v>
       </c>
       <c r="R5">
-        <v>161</v>
+        <v>111.6</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -729,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>619</v>
+        <v>447</v>
       </c>
       <c r="X5">
         <v>16</v>
       </c>
       <c r="Y5">
-        <v>421</v>
+        <v>231.5</v>
       </c>
       <c r="Z5">
         <v>2</v>
@@ -744,40 +840,79 @@
         <v>12.5</v>
       </c>
       <c r="AB5">
+        <v>-1.5</v>
+      </c>
+      <c r="AC5">
+        <v>842</v>
+      </c>
+      <c r="AD5">
+        <v>52.6</v>
+      </c>
+      <c r="AE5">
+        <v>161</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>619</v>
+      </c>
+      <c r="AK5">
+        <v>16</v>
+      </c>
+      <c r="AL5">
+        <v>421</v>
+      </c>
+      <c r="AM5">
+        <v>2</v>
+      </c>
+      <c r="AN5">
+        <v>12.5</v>
+      </c>
+      <c r="AO5">
         <v>-0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:41">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="D6">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="F6">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="G6">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="H6">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="I6">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="J6">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -786,96 +921,132 @@
         <v>100</v>
       </c>
       <c r="O6">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="X6">
         <v>1</v>
       </c>
+      <c r="Y6">
+        <v>33</v>
+      </c>
       <c r="Z6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB6">
+        <v>2</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
         <v>-1.3</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:41">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7">
-        <v>1364466</v>
+        <v>659101</v>
       </c>
       <c r="D7">
-        <v>2471.9</v>
+        <v>1194</v>
       </c>
       <c r="E7">
-        <v>4343.6</v>
+        <v>2122.4</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>68.5</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>887</v>
+        <v>526</v>
       </c>
       <c r="I7">
-        <v>2580</v>
+        <v>1600.5</v>
       </c>
       <c r="J7">
-        <v>27937</v>
+        <v>19900</v>
       </c>
       <c r="K7">
         <v>552</v>
       </c>
       <c r="L7">
-        <v>3101.1</v>
+        <v>1672.8</v>
       </c>
       <c r="M7">
-        <v>440</v>
+        <v>394</v>
       </c>
       <c r="N7">
-        <v>79.7</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="O7">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="P7">
-        <v>312315</v>
+        <v>259530</v>
       </c>
       <c r="Q7">
-        <v>565.8</v>
+        <v>470.2</v>
       </c>
       <c r="R7">
-        <v>935.9</v>
+        <v>1446.4</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -884,43 +1055,82 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>167</v>
+        <v>70.5</v>
       </c>
       <c r="V7">
-        <v>802.5</v>
+        <v>346.5</v>
       </c>
       <c r="W7">
-        <v>7154</v>
+        <v>18016</v>
       </c>
       <c r="X7">
         <v>552</v>
       </c>
       <c r="Y7">
+        <v>652.1</v>
+      </c>
+      <c r="Z7">
+        <v>398</v>
+      </c>
+      <c r="AA7">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="AB7">
+        <v>0.9</v>
+      </c>
+      <c r="AC7">
+        <v>312315</v>
+      </c>
+      <c r="AD7">
+        <v>565.8</v>
+      </c>
+      <c r="AE7">
+        <v>935.9</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>167</v>
+      </c>
+      <c r="AI7">
+        <v>802.5</v>
+      </c>
+      <c r="AJ7">
+        <v>7154</v>
+      </c>
+      <c r="AK7">
+        <v>552</v>
+      </c>
+      <c r="AL7">
         <v>1088.2</v>
       </c>
-      <c r="Z7">
+      <c r="AM7">
         <v>287</v>
       </c>
-      <c r="AA7">
+      <c r="AN7">
         <v>52</v>
       </c>
-      <c r="AB7">
+      <c r="AO7">
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:41">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8">
-        <v>2547821</v>
+        <v>1100351</v>
       </c>
       <c r="D8">
-        <v>1373.5</v>
+        <v>593.2</v>
       </c>
       <c r="E8">
-        <v>4699.7</v>
+        <v>1611.5</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -929,37 +1139,37 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="I8">
-        <v>907.5</v>
+        <v>610.5</v>
       </c>
       <c r="J8">
-        <v>74441</v>
+        <v>43003</v>
       </c>
       <c r="K8">
         <v>1855</v>
       </c>
       <c r="L8">
-        <v>2083.3</v>
+        <v>979.8</v>
       </c>
       <c r="M8">
-        <v>1223</v>
+        <v>1123</v>
       </c>
       <c r="N8">
-        <v>65.90000000000001</v>
+        <v>60.5</v>
       </c>
       <c r="O8">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="P8">
-        <v>524309</v>
+        <v>416459</v>
       </c>
       <c r="Q8">
-        <v>282.6</v>
+        <v>224.5</v>
       </c>
       <c r="R8">
-        <v>1227.7</v>
+        <v>941.1</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -968,127 +1178,205 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="V8">
-        <v>300.5</v>
+        <v>123</v>
       </c>
       <c r="W8">
-        <v>36948</v>
+        <v>20111</v>
       </c>
       <c r="X8">
         <v>1855</v>
       </c>
       <c r="Y8">
+        <v>363.4</v>
+      </c>
+      <c r="Z8">
+        <v>1146</v>
+      </c>
+      <c r="AA8">
+        <v>61.8</v>
+      </c>
+      <c r="AB8">
+        <v>0.5</v>
+      </c>
+      <c r="AC8">
+        <v>524309</v>
+      </c>
+      <c r="AD8">
+        <v>282.6</v>
+      </c>
+      <c r="AE8">
+        <v>1227.7</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>300.5</v>
+      </c>
+      <c r="AJ8">
+        <v>36948</v>
+      </c>
+      <c r="AK8">
+        <v>1855</v>
+      </c>
+      <c r="AL8">
         <v>849.8</v>
       </c>
-      <c r="Z8">
+      <c r="AM8">
         <v>617</v>
       </c>
-      <c r="AA8">
+      <c r="AN8">
         <v>33.3</v>
       </c>
-      <c r="AB8">
+      <c r="AO8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:41">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9">
-        <v>247102</v>
+        <v>113726</v>
       </c>
       <c r="D9">
-        <v>3861</v>
+        <v>1777</v>
       </c>
       <c r="E9">
-        <v>8198.4</v>
+        <v>2211.5</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>446.2</v>
+        <v>177</v>
       </c>
       <c r="H9">
-        <v>1890</v>
+        <v>1156</v>
       </c>
       <c r="I9">
-        <v>4329.2</v>
+        <v>2670.8</v>
       </c>
       <c r="J9">
-        <v>60386</v>
+        <v>13060</v>
       </c>
       <c r="K9">
         <v>64</v>
       </c>
       <c r="L9">
-        <v>4335.1</v>
+        <v>2145.8</v>
       </c>
       <c r="M9">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N9">
-        <v>89.09999999999999</v>
+        <v>82.8</v>
       </c>
       <c r="O9">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="P9">
-        <v>31219</v>
+        <v>70087</v>
       </c>
       <c r="Q9">
-        <v>487.8</v>
+        <v>1095.1</v>
       </c>
       <c r="R9">
-        <v>532.2</v>
+        <v>5845.9</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>28.5</v>
       </c>
       <c r="U9">
-        <v>361</v>
+        <v>222</v>
       </c>
       <c r="V9">
-        <v>868.8</v>
+        <v>483.5</v>
       </c>
       <c r="W9">
-        <v>1748</v>
+        <v>46992</v>
       </c>
       <c r="X9">
         <v>64</v>
       </c>
       <c r="Y9">
+        <v>1322.4</v>
+      </c>
+      <c r="Z9">
+        <v>53</v>
+      </c>
+      <c r="AA9">
+        <v>82.8</v>
+      </c>
+      <c r="AB9">
+        <v>1.3</v>
+      </c>
+      <c r="AC9">
+        <v>31219</v>
+      </c>
+      <c r="AD9">
+        <v>487.8</v>
+      </c>
+      <c r="AE9">
+        <v>532.2</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>361</v>
+      </c>
+      <c r="AI9">
+        <v>868.8</v>
+      </c>
+      <c r="AJ9">
+        <v>1748</v>
+      </c>
+      <c r="AK9">
+        <v>64</v>
+      </c>
+      <c r="AL9">
         <v>843.8</v>
       </c>
-      <c r="Z9">
+      <c r="AM9">
         <v>37</v>
       </c>
-      <c r="AA9">
+      <c r="AN9">
         <v>57.8</v>
       </c>
-      <c r="AB9">
+      <c r="AO9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:41">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10">
-        <v>52695</v>
+        <v>13622</v>
       </c>
       <c r="D10">
-        <v>1549.9</v>
+        <v>400.6</v>
       </c>
       <c r="E10">
-        <v>4806.1</v>
+        <v>976.8</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1100,34 +1388,34 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>451.2</v>
+        <v>114.8</v>
       </c>
       <c r="J10">
-        <v>26102</v>
+        <v>4250</v>
       </c>
       <c r="K10">
         <v>34</v>
       </c>
       <c r="L10">
-        <v>3293.4</v>
+        <v>973</v>
       </c>
       <c r="M10">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N10">
-        <v>47.1</v>
+        <v>41.2</v>
       </c>
       <c r="O10">
         <v>-0.4</v>
       </c>
       <c r="P10">
-        <v>4789</v>
+        <v>2252</v>
       </c>
       <c r="Q10">
-        <v>140.9</v>
+        <v>66.2</v>
       </c>
       <c r="R10">
-        <v>395.3</v>
+        <v>158.7</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1139,42 +1427,81 @@
         <v>0</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="W10">
-        <v>1735</v>
+        <v>648</v>
       </c>
       <c r="X10">
         <v>34</v>
       </c>
       <c r="Y10">
-        <v>684.1</v>
+        <v>173.2</v>
       </c>
       <c r="Z10">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AA10">
-        <v>20.6</v>
+        <v>38.2</v>
       </c>
       <c r="AB10">
         <v>-0.5</v>
       </c>
+      <c r="AC10">
+        <v>4789</v>
+      </c>
+      <c r="AD10">
+        <v>140.9</v>
+      </c>
+      <c r="AE10">
+        <v>395.3</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>1735</v>
+      </c>
+      <c r="AK10">
+        <v>34</v>
+      </c>
+      <c r="AL10">
+        <v>684.1</v>
+      </c>
+      <c r="AM10">
+        <v>7</v>
+      </c>
+      <c r="AN10">
+        <v>20.6</v>
+      </c>
+      <c r="AO10">
+        <v>-0.5</v>
+      </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:41">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>2042</v>
+        <v>1633</v>
       </c>
       <c r="D11">
-        <v>680.7</v>
+        <v>544.3</v>
       </c>
       <c r="E11">
-        <v>1178.9</v>
+        <v>942.8</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1186,16 +1513,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1021</v>
+        <v>816.5</v>
       </c>
       <c r="J11">
-        <v>2042</v>
+        <v>1633</v>
       </c>
       <c r="K11">
         <v>3</v>
       </c>
       <c r="L11">
-        <v>2042</v>
+        <v>1633</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -1204,16 +1531,16 @@
         <v>33.3</v>
       </c>
       <c r="O11">
-        <v>-0.9</v>
+        <v>-0.7</v>
       </c>
       <c r="P11">
-        <v>675</v>
+        <v>411</v>
       </c>
       <c r="Q11">
-        <v>225</v>
+        <v>137</v>
       </c>
       <c r="R11">
-        <v>389.7</v>
+        <v>237.3</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1225,16 +1552,16 @@
         <v>0</v>
       </c>
       <c r="V11">
-        <v>337.5</v>
+        <v>205.5</v>
       </c>
       <c r="W11">
-        <v>675</v>
+        <v>411</v>
       </c>
       <c r="X11">
         <v>3</v>
       </c>
       <c r="Y11">
-        <v>675</v>
+        <v>411</v>
       </c>
       <c r="Z11">
         <v>1</v>
@@ -1243,22 +1570,61 @@
         <v>33.3</v>
       </c>
       <c r="AB11">
+        <v>-0.7</v>
+      </c>
+      <c r="AC11">
+        <v>675</v>
+      </c>
+      <c r="AD11">
+        <v>225</v>
+      </c>
+      <c r="AE11">
+        <v>389.7</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>337.5</v>
+      </c>
+      <c r="AJ11">
+        <v>675</v>
+      </c>
+      <c r="AK11">
+        <v>3</v>
+      </c>
+      <c r="AL11">
+        <v>675</v>
+      </c>
+      <c r="AM11">
+        <v>1</v>
+      </c>
+      <c r="AN11">
+        <v>33.3</v>
+      </c>
+      <c r="AO11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:41">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12">
-        <v>70938</v>
+        <v>49307</v>
       </c>
       <c r="D12">
-        <v>5911.5</v>
+        <v>4108.9</v>
       </c>
       <c r="E12">
-        <v>19805.5</v>
+        <v>13695</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1270,16 +1636,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>33.8</v>
+        <v>28.2</v>
       </c>
       <c r="J12">
-        <v>68775</v>
+        <v>47571</v>
       </c>
       <c r="K12">
         <v>12</v>
       </c>
       <c r="L12">
-        <v>17734.5</v>
+        <v>12326.8</v>
       </c>
       <c r="M12">
         <v>4</v>
@@ -1288,16 +1654,16 @@
         <v>33.3</v>
       </c>
       <c r="O12">
-        <v>-0.9</v>
+        <v>-0.7</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>21313</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>1776.1</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>6018.6</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1309,39 +1675,78 @@
         <v>0</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>20884</v>
       </c>
       <c r="X12">
         <v>12</v>
       </c>
+      <c r="Y12">
+        <v>5328.2</v>
+      </c>
       <c r="Z12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="AB12">
+        <v>-0.7</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>12</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
         <v>-1.3</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:41">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13">
-        <v>99992</v>
+        <v>22160</v>
       </c>
       <c r="D13">
-        <v>2940.9</v>
+        <v>651.8</v>
       </c>
       <c r="E13">
-        <v>6305.3</v>
+        <v>2551.9</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1350,37 +1755,37 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>21.5</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1543.5</v>
+        <v>386</v>
       </c>
       <c r="J13">
-        <v>25383</v>
+        <v>14888</v>
       </c>
       <c r="K13">
         <v>34</v>
       </c>
       <c r="L13">
-        <v>5555.1</v>
+        <v>1846.7</v>
       </c>
       <c r="M13">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N13">
-        <v>52.9</v>
+        <v>35.3</v>
       </c>
       <c r="O13">
-        <v>-0.2</v>
+        <v>-0.7</v>
       </c>
       <c r="P13">
-        <v>22806</v>
+        <v>12319</v>
       </c>
       <c r="Q13">
-        <v>670.8</v>
+        <v>362.3</v>
       </c>
       <c r="R13">
-        <v>1830.5</v>
+        <v>1783.8</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -1392,79 +1797,118 @@
         <v>0</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>52.8</v>
       </c>
       <c r="W13">
-        <v>6887</v>
+        <v>10421</v>
       </c>
       <c r="X13">
         <v>34</v>
       </c>
       <c r="Y13">
+        <v>1026.6</v>
+      </c>
+      <c r="Z13">
+        <v>12</v>
+      </c>
+      <c r="AA13">
+        <v>35.3</v>
+      </c>
+      <c r="AB13">
+        <v>-0.6</v>
+      </c>
+      <c r="AC13">
+        <v>22806</v>
+      </c>
+      <c r="AD13">
+        <v>670.8</v>
+      </c>
+      <c r="AE13">
+        <v>1830.5</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>6887</v>
+      </c>
+      <c r="AK13">
+        <v>34</v>
+      </c>
+      <c r="AL13">
         <v>2850.8</v>
       </c>
-      <c r="Z13">
+      <c r="AM13">
         <v>8</v>
       </c>
-      <c r="AA13">
+      <c r="AN13">
         <v>23.5</v>
       </c>
-      <c r="AB13">
+      <c r="AO13">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:41">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>24056</v>
+      </c>
+      <c r="D14">
+        <v>453.9</v>
+      </c>
+      <c r="E14">
+        <v>938.3</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>24</v>
       </c>
-      <c r="C14">
-        <v>75868</v>
-      </c>
-      <c r="D14">
-        <v>1431.5</v>
-      </c>
-      <c r="E14">
-        <v>4321.4</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>65</v>
-      </c>
       <c r="I14">
-        <v>864</v>
+        <v>570</v>
       </c>
       <c r="J14">
-        <v>24940</v>
+        <v>5535</v>
       </c>
       <c r="K14">
         <v>53</v>
       </c>
       <c r="L14">
-        <v>2231.4</v>
+        <v>801.9</v>
       </c>
       <c r="M14">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N14">
-        <v>64.2</v>
+        <v>56.6</v>
       </c>
       <c r="O14">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="P14">
-        <v>23088</v>
+        <v>5594</v>
       </c>
       <c r="Q14">
-        <v>435.6</v>
+        <v>105.5</v>
       </c>
       <c r="R14">
-        <v>1116.3</v>
+        <v>203.1</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -1473,61 +1917,100 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V14">
-        <v>566</v>
+        <v>79</v>
       </c>
       <c r="W14">
-        <v>7664</v>
+        <v>915</v>
       </c>
       <c r="X14">
         <v>53</v>
       </c>
       <c r="Y14">
+        <v>199.8</v>
+      </c>
+      <c r="Z14">
+        <v>28</v>
+      </c>
+      <c r="AA14">
+        <v>52.8</v>
+      </c>
+      <c r="AB14">
+        <v>0.1</v>
+      </c>
+      <c r="AC14">
+        <v>23088</v>
+      </c>
+      <c r="AD14">
+        <v>435.6</v>
+      </c>
+      <c r="AE14">
+        <v>1116.3</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>566</v>
+      </c>
+      <c r="AJ14">
+        <v>7664</v>
+      </c>
+      <c r="AK14">
+        <v>53</v>
+      </c>
+      <c r="AL14">
         <v>1049.5</v>
       </c>
-      <c r="Z14">
+      <c r="AM14">
         <v>22</v>
       </c>
-      <c r="AA14">
+      <c r="AN14">
         <v>41.5</v>
       </c>
-      <c r="AB14">
+      <c r="AO14">
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:41">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15">
-        <v>591</v>
+        <v>517</v>
       </c>
       <c r="D15">
-        <v>591</v>
+        <v>517</v>
       </c>
       <c r="F15">
-        <v>591</v>
+        <v>517</v>
       </c>
       <c r="G15">
-        <v>591</v>
+        <v>517</v>
       </c>
       <c r="H15">
-        <v>591</v>
+        <v>517</v>
       </c>
       <c r="I15">
-        <v>591</v>
+        <v>517</v>
       </c>
       <c r="J15">
-        <v>591</v>
+        <v>517</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>591</v>
+        <v>517</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -1536,34 +2019,34 @@
         <v>100</v>
       </c>
       <c r="O15">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="P15">
-        <v>794</v>
+        <v>75</v>
       </c>
       <c r="Q15">
-        <v>794</v>
+        <v>75</v>
       </c>
       <c r="S15">
-        <v>794</v>
+        <v>75</v>
       </c>
       <c r="T15">
-        <v>794</v>
+        <v>75</v>
       </c>
       <c r="U15">
-        <v>794</v>
+        <v>75</v>
       </c>
       <c r="V15">
-        <v>794</v>
+        <v>75</v>
       </c>
       <c r="W15">
-        <v>794</v>
+        <v>75</v>
       </c>
       <c r="X15">
         <v>1</v>
       </c>
       <c r="Y15">
-        <v>794</v>
+        <v>75</v>
       </c>
       <c r="Z15">
         <v>1</v>
@@ -1572,22 +2055,58 @@
         <v>100</v>
       </c>
       <c r="AB15">
+        <v>2</v>
+      </c>
+      <c r="AC15">
+        <v>794</v>
+      </c>
+      <c r="AD15">
+        <v>794</v>
+      </c>
+      <c r="AF15">
+        <v>794</v>
+      </c>
+      <c r="AG15">
+        <v>794</v>
+      </c>
+      <c r="AH15">
+        <v>794</v>
+      </c>
+      <c r="AI15">
+        <v>794</v>
+      </c>
+      <c r="AJ15">
+        <v>794</v>
+      </c>
+      <c r="AK15">
+        <v>1</v>
+      </c>
+      <c r="AL15">
+        <v>794</v>
+      </c>
+      <c r="AM15">
+        <v>1</v>
+      </c>
+      <c r="AN15">
+        <v>100</v>
+      </c>
+      <c r="AO15">
         <v>2.7</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:41">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16">
-        <v>5215</v>
+        <v>5033</v>
       </c>
       <c r="D16">
-        <v>869.2</v>
+        <v>838.8</v>
       </c>
       <c r="E16">
-        <v>2083.3</v>
+        <v>2012.4</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1599,16 +2118,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>70.5</v>
+        <v>65.2</v>
       </c>
       <c r="J16">
-        <v>5121</v>
+        <v>4946</v>
       </c>
       <c r="K16">
         <v>6</v>
       </c>
       <c r="L16">
-        <v>2607.5</v>
+        <v>2516.5</v>
       </c>
       <c r="M16">
         <v>2</v>
@@ -1617,16 +2136,16 @@
         <v>33.3</v>
       </c>
       <c r="O16">
-        <v>-0.9</v>
+        <v>-0.7</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>65.2</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -1638,39 +2157,78 @@
         <v>0</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="X16">
         <v>6</v>
       </c>
+      <c r="Y16">
+        <v>84</v>
+      </c>
       <c r="Z16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="AB16">
+        <v>-0.7</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>6</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
         <v>-1.3</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:41">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17">
-        <v>273727</v>
+        <v>112332</v>
       </c>
       <c r="D17">
-        <v>2012.7</v>
+        <v>826</v>
       </c>
       <c r="E17">
-        <v>6447.2</v>
+        <v>1570.7</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1679,37 +2237,37 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1774.8</v>
+        <v>916</v>
       </c>
       <c r="J17">
-        <v>68140</v>
+        <v>8541</v>
       </c>
       <c r="K17">
         <v>136</v>
       </c>
       <c r="L17">
-        <v>3699</v>
+        <v>1702</v>
       </c>
       <c r="M17">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="N17">
-        <v>54.4</v>
+        <v>48.5</v>
       </c>
       <c r="O17">
         <v>-0.1</v>
       </c>
       <c r="P17">
-        <v>41868</v>
+        <v>37235</v>
       </c>
       <c r="Q17">
-        <v>307.9</v>
+        <v>273.8</v>
       </c>
       <c r="R17">
-        <v>779.3</v>
+        <v>780.2</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -1721,40 +2279,79 @@
         <v>0</v>
       </c>
       <c r="V17">
-        <v>74.5</v>
+        <v>158.8</v>
       </c>
       <c r="W17">
-        <v>6448</v>
+        <v>6050</v>
       </c>
       <c r="X17">
         <v>136</v>
       </c>
       <c r="Y17">
+        <v>564.2</v>
+      </c>
+      <c r="Z17">
+        <v>66</v>
+      </c>
+      <c r="AA17">
+        <v>48.5</v>
+      </c>
+      <c r="AB17">
+        <v>-0.1</v>
+      </c>
+      <c r="AC17">
+        <v>41868</v>
+      </c>
+      <c r="AD17">
+        <v>307.9</v>
+      </c>
+      <c r="AE17">
+        <v>779.3</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>74.5</v>
+      </c>
+      <c r="AJ17">
+        <v>6448</v>
+      </c>
+      <c r="AK17">
+        <v>136</v>
+      </c>
+      <c r="AL17">
         <v>1131.6</v>
       </c>
-      <c r="Z17">
+      <c r="AM17">
         <v>37</v>
       </c>
-      <c r="AA17">
+      <c r="AN17">
         <v>27.2</v>
       </c>
-      <c r="AB17">
+      <c r="AO17">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:41">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18">
-        <v>272755</v>
+        <v>161873</v>
       </c>
       <c r="D18">
-        <v>824</v>
+        <v>489</v>
       </c>
       <c r="E18">
-        <v>3723.8</v>
+        <v>2716</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1763,37 +2360,37 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="I18">
-        <v>520</v>
+        <v>406</v>
       </c>
       <c r="J18">
-        <v>56317</v>
+        <v>47580</v>
       </c>
       <c r="K18">
         <v>331</v>
       </c>
       <c r="L18">
-        <v>1458.6</v>
+        <v>941.1</v>
       </c>
       <c r="M18">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="N18">
-        <v>56.5</v>
+        <v>52</v>
       </c>
       <c r="O18">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>102366</v>
+        <v>40496</v>
       </c>
       <c r="Q18">
-        <v>309.3</v>
+        <v>122.3</v>
       </c>
       <c r="R18">
-        <v>2070.5</v>
+        <v>565.2</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -1802,82 +2399,121 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V18">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="W18">
-        <v>36858</v>
+        <v>8505</v>
       </c>
       <c r="X18">
         <v>331</v>
       </c>
       <c r="Y18">
+        <v>228.8</v>
+      </c>
+      <c r="Z18">
+        <v>177</v>
+      </c>
+      <c r="AA18">
+        <v>53.5</v>
+      </c>
+      <c r="AB18">
+        <v>0.1</v>
+      </c>
+      <c r="AC18">
+        <v>102366</v>
+      </c>
+      <c r="AD18">
+        <v>309.3</v>
+      </c>
+      <c r="AE18">
+        <v>2070.5</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>75</v>
+      </c>
+      <c r="AJ18">
+        <v>36858</v>
+      </c>
+      <c r="AK18">
+        <v>331</v>
+      </c>
+      <c r="AL18">
         <v>1190.3</v>
       </c>
-      <c r="Z18">
+      <c r="AM18">
         <v>86</v>
       </c>
-      <c r="AA18">
+      <c r="AN18">
         <v>26</v>
       </c>
-      <c r="AB18">
+      <c r="AO18">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:41">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19">
-        <v>98249</v>
+        <v>40940</v>
       </c>
       <c r="D19">
-        <v>4465.9</v>
+        <v>1860.9</v>
       </c>
       <c r="E19">
-        <v>5975.6</v>
+        <v>2537.7</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>422</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>2615.5</v>
+        <v>978</v>
       </c>
       <c r="I19">
-        <v>4023</v>
+        <v>2382</v>
       </c>
       <c r="J19">
-        <v>18528</v>
+        <v>8682</v>
       </c>
       <c r="K19">
         <v>22</v>
       </c>
       <c r="L19">
-        <v>5779.4</v>
+        <v>2924.3</v>
       </c>
       <c r="M19">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N19">
-        <v>77.3</v>
+        <v>63.6</v>
       </c>
       <c r="O19">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="P19">
-        <v>16518</v>
+        <v>23376</v>
       </c>
       <c r="Q19">
-        <v>750.8</v>
+        <v>1062.5</v>
       </c>
       <c r="R19">
-        <v>1327.9</v>
+        <v>2805.7</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -1886,43 +2522,82 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>112.5</v>
       </c>
       <c r="V19">
-        <v>1291.5</v>
+        <v>457.5</v>
       </c>
       <c r="W19">
-        <v>5316</v>
+        <v>9692</v>
       </c>
       <c r="X19">
         <v>22</v>
       </c>
       <c r="Y19">
-        <v>1651.8</v>
+        <v>1669.7</v>
       </c>
       <c r="Z19">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AA19">
-        <v>45.5</v>
+        <v>63.6</v>
       </c>
       <c r="AB19">
         <v>0.5</v>
       </c>
+      <c r="AC19">
+        <v>16518</v>
+      </c>
+      <c r="AD19">
+        <v>750.8</v>
+      </c>
+      <c r="AE19">
+        <v>1327.9</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>1291.5</v>
+      </c>
+      <c r="AJ19">
+        <v>5316</v>
+      </c>
+      <c r="AK19">
+        <v>22</v>
+      </c>
+      <c r="AL19">
+        <v>1651.8</v>
+      </c>
+      <c r="AM19">
+        <v>10</v>
+      </c>
+      <c r="AN19">
+        <v>45.5</v>
+      </c>
+      <c r="AO19">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:41">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="D20">
-        <v>82.8</v>
+        <v>79.2</v>
       </c>
       <c r="E20">
-        <v>185.1</v>
+        <v>177.1</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1937,13 +2612,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="K20">
         <v>5</v>
       </c>
       <c r="L20">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -1952,16 +2627,16 @@
         <v>20</v>
       </c>
       <c r="O20">
-        <v>-1.4</v>
+        <v>-1.3</v>
       </c>
       <c r="P20">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="Q20">
-        <v>30.2</v>
+        <v>3.6</v>
       </c>
       <c r="R20">
-        <v>67.5</v>
+        <v>8</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -1976,13 +2651,13 @@
         <v>0</v>
       </c>
       <c r="W20">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="X20">
         <v>5</v>
       </c>
       <c r="Y20">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="Z20">
         <v>1</v>
@@ -1991,63 +2666,102 @@
         <v>20</v>
       </c>
       <c r="AB20">
+        <v>-1.2</v>
+      </c>
+      <c r="AC20">
+        <v>151</v>
+      </c>
+      <c r="AD20">
+        <v>30.2</v>
+      </c>
+      <c r="AE20">
+        <v>67.5</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>151</v>
+      </c>
+      <c r="AK20">
+        <v>5</v>
+      </c>
+      <c r="AL20">
+        <v>151</v>
+      </c>
+      <c r="AM20">
+        <v>1</v>
+      </c>
+      <c r="AN20">
+        <v>20</v>
+      </c>
+      <c r="AO20">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:41">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21">
-        <v>214437</v>
+        <v>48891</v>
       </c>
       <c r="D21">
-        <v>3403.8</v>
+        <v>776</v>
       </c>
       <c r="E21">
-        <v>6798.1</v>
+        <v>1208.8</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>1035</v>
+        <v>56</v>
       </c>
       <c r="I21">
-        <v>2925</v>
+        <v>1211.5</v>
       </c>
       <c r="J21">
-        <v>30621</v>
+        <v>5793</v>
       </c>
       <c r="K21">
         <v>63</v>
       </c>
       <c r="L21">
-        <v>4467.4</v>
+        <v>1396.9</v>
       </c>
       <c r="M21">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N21">
-        <v>76.2</v>
+        <v>55.6</v>
       </c>
       <c r="O21">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="P21">
-        <v>68378</v>
+        <v>6148</v>
       </c>
       <c r="Q21">
-        <v>1085.4</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="R21">
-        <v>2553.7</v>
+        <v>167.6</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -2056,43 +2770,82 @@
         <v>0</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V21">
-        <v>944</v>
+        <v>166.5</v>
       </c>
       <c r="W21">
-        <v>13336</v>
+        <v>938</v>
       </c>
       <c r="X21">
         <v>63</v>
       </c>
       <c r="Y21">
+        <v>170.8</v>
+      </c>
+      <c r="Z21">
+        <v>36</v>
+      </c>
+      <c r="AA21">
+        <v>57.1</v>
+      </c>
+      <c r="AB21">
+        <v>0.3</v>
+      </c>
+      <c r="AC21">
+        <v>68378</v>
+      </c>
+      <c r="AD21">
+        <v>1085.4</v>
+      </c>
+      <c r="AE21">
+        <v>2553.7</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>944</v>
+      </c>
+      <c r="AJ21">
+        <v>13336</v>
+      </c>
+      <c r="AK21">
+        <v>63</v>
+      </c>
+      <c r="AL21">
         <v>2205.7</v>
       </c>
-      <c r="Z21">
+      <c r="AM21">
         <v>31</v>
       </c>
-      <c r="AA21">
+      <c r="AN21">
         <v>49.2</v>
       </c>
-      <c r="AB21">
+      <c r="AO21">
         <v>0.6</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:41">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22">
-        <v>100699</v>
+        <v>42573</v>
       </c>
       <c r="D22">
-        <v>774.6</v>
+        <v>327.5</v>
       </c>
       <c r="E22">
-        <v>2441</v>
+        <v>714.4</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2101,37 +2854,37 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>43</v>
+        <v>16.5</v>
       </c>
       <c r="I22">
-        <v>570.2</v>
+        <v>390.2</v>
       </c>
       <c r="J22">
-        <v>19670</v>
+        <v>4906</v>
       </c>
       <c r="K22">
         <v>130</v>
       </c>
       <c r="L22">
-        <v>1243.2</v>
+        <v>575.3</v>
       </c>
       <c r="M22">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="N22">
-        <v>62.3</v>
+        <v>56.9</v>
       </c>
       <c r="O22">
         <v>0.2</v>
       </c>
       <c r="P22">
-        <v>31156</v>
+        <v>11281</v>
       </c>
       <c r="Q22">
-        <v>239.7</v>
+        <v>86.8</v>
       </c>
       <c r="R22">
-        <v>503.8</v>
+        <v>319.8</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -2140,82 +2893,121 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="V22">
-        <v>279.5</v>
+        <v>44.2</v>
       </c>
       <c r="W22">
-        <v>3096</v>
+        <v>3183</v>
       </c>
       <c r="X22">
         <v>130</v>
       </c>
       <c r="Y22">
+        <v>150.4</v>
+      </c>
+      <c r="Z22">
+        <v>75</v>
+      </c>
+      <c r="AA22">
+        <v>57.7</v>
+      </c>
+      <c r="AB22">
+        <v>0.3</v>
+      </c>
+      <c r="AC22">
+        <v>31156</v>
+      </c>
+      <c r="AD22">
+        <v>239.7</v>
+      </c>
+      <c r="AE22">
+        <v>503.8</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>279.5</v>
+      </c>
+      <c r="AJ22">
+        <v>3096</v>
+      </c>
+      <c r="AK22">
+        <v>130</v>
+      </c>
+      <c r="AL22">
         <v>610.9</v>
       </c>
-      <c r="Z22">
+      <c r="AM22">
         <v>51</v>
       </c>
-      <c r="AA22">
+      <c r="AN22">
         <v>39.2</v>
       </c>
-      <c r="AB22">
+      <c r="AO22">
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:41">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C23">
-        <v>12522</v>
+        <v>4792</v>
       </c>
       <c r="D23">
-        <v>2504.4</v>
+        <v>958.4</v>
       </c>
       <c r="E23">
-        <v>2754.5</v>
+        <v>1362.2</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>226</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>1594</v>
+        <v>218</v>
       </c>
       <c r="I23">
-        <v>4389</v>
+        <v>1419</v>
       </c>
       <c r="J23">
-        <v>6313</v>
+        <v>3155</v>
       </c>
       <c r="K23">
         <v>5</v>
       </c>
       <c r="L23">
-        <v>3130.5</v>
+        <v>1597.3</v>
       </c>
       <c r="M23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N23">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="O23">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="P23">
-        <v>3056</v>
+        <v>1418</v>
       </c>
       <c r="Q23">
-        <v>611.2</v>
+        <v>283.6</v>
       </c>
       <c r="R23">
-        <v>621.9</v>
+        <v>537.6</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -2224,19 +3016,19 @@
         <v>0</v>
       </c>
       <c r="U23">
-        <v>669</v>
+        <v>7</v>
       </c>
       <c r="V23">
-        <v>950</v>
+        <v>175</v>
       </c>
       <c r="W23">
-        <v>1437</v>
+        <v>1236</v>
       </c>
       <c r="X23">
         <v>5</v>
       </c>
       <c r="Y23">
-        <v>1018.7</v>
+        <v>472.7</v>
       </c>
       <c r="Z23">
         <v>3</v>
@@ -2245,22 +3037,61 @@
         <v>60</v>
       </c>
       <c r="AB23">
+        <v>0.4</v>
+      </c>
+      <c r="AC23">
+        <v>3056</v>
+      </c>
+      <c r="AD23">
+        <v>611.2</v>
+      </c>
+      <c r="AE23">
+        <v>621.9</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>669</v>
+      </c>
+      <c r="AI23">
+        <v>950</v>
+      </c>
+      <c r="AJ23">
+        <v>1437</v>
+      </c>
+      <c r="AK23">
+        <v>5</v>
+      </c>
+      <c r="AL23">
+        <v>1018.7</v>
+      </c>
+      <c r="AM23">
+        <v>3</v>
+      </c>
+      <c r="AN23">
+        <v>60</v>
+      </c>
+      <c r="AO23">
         <v>1.1</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:41">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24">
-        <v>1436</v>
+        <v>1047</v>
       </c>
       <c r="D24">
-        <v>159.6</v>
+        <v>116.3</v>
       </c>
       <c r="E24">
-        <v>325</v>
+        <v>228.5</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2272,16 +3103,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="J24">
-        <v>961</v>
+        <v>670</v>
       </c>
       <c r="K24">
         <v>9</v>
       </c>
       <c r="L24">
-        <v>359</v>
+        <v>261.8</v>
       </c>
       <c r="M24">
         <v>4</v>
@@ -2290,16 +3121,16 @@
         <v>44.4</v>
       </c>
       <c r="O24">
-        <v>-0.5</v>
+        <v>-0.3</v>
       </c>
       <c r="P24">
-        <v>2286</v>
+        <v>382</v>
       </c>
       <c r="Q24">
-        <v>254</v>
+        <v>42.4</v>
       </c>
       <c r="R24">
-        <v>333.6</v>
+        <v>94.8</v>
       </c>
       <c r="S24">
         <v>0</v>
@@ -2308,34 +3139,74 @@
         <v>0</v>
       </c>
       <c r="U24">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="V24">
-        <v>318</v>
+        <v>10</v>
       </c>
       <c r="W24">
-        <v>965</v>
+        <v>283</v>
       </c>
       <c r="X24">
         <v>9</v>
       </c>
       <c r="Y24">
+        <v>127.3</v>
+      </c>
+      <c r="Z24">
+        <v>3</v>
+      </c>
+      <c r="AA24">
+        <v>33.3</v>
+      </c>
+      <c r="AB24">
+        <v>-0.7</v>
+      </c>
+      <c r="AC24">
+        <v>2286</v>
+      </c>
+      <c r="AD24">
+        <v>254</v>
+      </c>
+      <c r="AE24">
+        <v>333.6</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>155</v>
+      </c>
+      <c r="AI24">
+        <v>318</v>
+      </c>
+      <c r="AJ24">
+        <v>965</v>
+      </c>
+      <c r="AK24">
+        <v>9</v>
+      </c>
+      <c r="AL24">
         <v>457.2</v>
       </c>
-      <c r="Z24">
+      <c r="AM24">
         <v>5</v>
       </c>
-      <c r="AA24">
+      <c r="AN24">
         <v>55.6</v>
       </c>
-      <c r="AB24">
+      <c r="AO24">
         <v>0.9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="C1:O1"/>
     <mergeCell ref="P1:AB1"/>
+    <mergeCell ref="AC1:AO1"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A11:A12"/>

--- a/data/analysis/social_media_analytics/pivot_tables/country-governance_simpl/museum_activity_groups__var2-country-governance_simpl.xlsx
+++ b/data/analysis/social_media_analytics/pivot_tables/country-governance_simpl/museum_activity_groups__var2-country-governance_simpl.xlsx
@@ -645,13 +645,13 @@
         <v>24</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="E4">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -666,13 +666,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K4">
         <v>7</v>
       </c>
       <c r="L4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -684,13 +684,13 @@
         <v>-1.5</v>
       </c>
       <c r="P4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q4">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="R4">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -705,13 +705,13 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X4">
         <v>7</v>
       </c>
       <c r="Y4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z4">
         <v>1</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="AO4">
-        <v>-1.3</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -765,13 +765,13 @@
         <v>25</v>
       </c>
       <c r="C5">
-        <v>1284</v>
+        <v>1732</v>
       </c>
       <c r="D5">
-        <v>80.2</v>
+        <v>108.2</v>
       </c>
       <c r="E5">
-        <v>299.3</v>
+        <v>411.1</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -786,13 +786,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1200</v>
+        <v>1648</v>
       </c>
       <c r="K5">
         <v>16</v>
       </c>
       <c r="L5">
-        <v>642</v>
+        <v>866</v>
       </c>
       <c r="M5">
         <v>2</v>
@@ -804,13 +804,13 @@
         <v>-1.6</v>
       </c>
       <c r="P5">
-        <v>463</v>
+        <v>659</v>
       </c>
       <c r="Q5">
-        <v>28.9</v>
+        <v>41.2</v>
       </c>
       <c r="R5">
-        <v>111.6</v>
+        <v>160.5</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -825,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>447</v>
+        <v>643</v>
       </c>
       <c r="X5">
         <v>16</v>
       </c>
       <c r="Y5">
-        <v>231.5</v>
+        <v>329.5</v>
       </c>
       <c r="Z5">
         <v>2</v>
@@ -843,13 +843,13 @@
         <v>-1.5</v>
       </c>
       <c r="AC5">
-        <v>842</v>
+        <v>2114</v>
       </c>
       <c r="AD5">
-        <v>52.6</v>
+        <v>132.1</v>
       </c>
       <c r="AE5">
-        <v>161</v>
+        <v>300.5</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -861,25 +861,25 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>35.5</v>
       </c>
       <c r="AJ5">
-        <v>619</v>
+        <v>981</v>
       </c>
       <c r="AK5">
         <v>16</v>
       </c>
       <c r="AL5">
-        <v>421</v>
+        <v>422.8</v>
       </c>
       <c r="AM5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AN5">
-        <v>12.5</v>
+        <v>31.2</v>
       </c>
       <c r="AO5">
-        <v>-0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:41">
@@ -924,31 +924,31 @@
         <v>2</v>
       </c>
       <c r="P6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="W6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X6">
         <v>1</v>
       </c>
       <c r="Y6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Z6">
         <v>1</v>
@@ -960,37 +960,40 @@
         <v>2</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="AK6">
         <v>1</v>
       </c>
+      <c r="AL6">
+        <v>171</v>
+      </c>
       <c r="AM6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AO6">
-        <v>-1.3</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="7" spans="1:41">
@@ -1001,13 +1004,13 @@
         <v>24</v>
       </c>
       <c r="C7">
-        <v>659101</v>
+        <v>771946</v>
       </c>
       <c r="D7">
-        <v>1194</v>
+        <v>1398.5</v>
       </c>
       <c r="E7">
-        <v>2122.4</v>
+        <v>2545.6</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1016,37 +1019,37 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>526</v>
+        <v>604.5</v>
       </c>
       <c r="I7">
-        <v>1600.5</v>
+        <v>1847.5</v>
       </c>
       <c r="J7">
-        <v>19900</v>
+        <v>24791</v>
       </c>
       <c r="K7">
         <v>552</v>
       </c>
       <c r="L7">
-        <v>1672.8</v>
+        <v>1979.3</v>
       </c>
       <c r="M7">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="N7">
-        <v>71.40000000000001</v>
+        <v>70.7</v>
       </c>
       <c r="O7">
         <v>0.8</v>
       </c>
       <c r="P7">
-        <v>259530</v>
+        <v>296859</v>
       </c>
       <c r="Q7">
-        <v>470.2</v>
+        <v>537.8</v>
       </c>
       <c r="R7">
-        <v>1446.4</v>
+        <v>1652.4</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1055,37 +1058,37 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>70.5</v>
+        <v>81</v>
       </c>
       <c r="V7">
-        <v>346.5</v>
+        <v>382</v>
       </c>
       <c r="W7">
-        <v>18016</v>
+        <v>20340</v>
       </c>
       <c r="X7">
         <v>552</v>
       </c>
       <c r="Y7">
-        <v>652.1</v>
+        <v>751.5</v>
       </c>
       <c r="Z7">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="AA7">
-        <v>72.09999999999999</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="AB7">
         <v>0.9</v>
       </c>
       <c r="AC7">
-        <v>312315</v>
+        <v>368196</v>
       </c>
       <c r="AD7">
-        <v>565.8</v>
+        <v>667</v>
       </c>
       <c r="AE7">
-        <v>935.9</v>
+        <v>767.3</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1094,28 +1097,28 @@
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>167</v>
+        <v>444</v>
       </c>
       <c r="AI7">
-        <v>802.5</v>
+        <v>1090.8</v>
       </c>
       <c r="AJ7">
-        <v>7154</v>
+        <v>5487</v>
       </c>
       <c r="AK7">
         <v>552</v>
       </c>
       <c r="AL7">
-        <v>1088.2</v>
+        <v>925.1</v>
       </c>
       <c r="AM7">
-        <v>287</v>
+        <v>398</v>
       </c>
       <c r="AN7">
-        <v>52</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="AO7">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="8" spans="1:41">
@@ -1124,13 +1127,13 @@
         <v>25</v>
       </c>
       <c r="C8">
-        <v>1100351</v>
+        <v>1294882</v>
       </c>
       <c r="D8">
-        <v>593.2</v>
+        <v>698</v>
       </c>
       <c r="E8">
-        <v>1611.5</v>
+        <v>1978.6</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1139,37 +1142,37 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I8">
-        <v>610.5</v>
+        <v>712</v>
       </c>
       <c r="J8">
-        <v>43003</v>
+        <v>55081</v>
       </c>
       <c r="K8">
         <v>1855</v>
       </c>
       <c r="L8">
-        <v>979.8</v>
+        <v>1163.4</v>
       </c>
       <c r="M8">
-        <v>1123</v>
+        <v>1113</v>
       </c>
       <c r="N8">
-        <v>60.5</v>
+        <v>60</v>
       </c>
       <c r="O8">
         <v>0.4</v>
       </c>
       <c r="P8">
-        <v>416459</v>
+        <v>485179</v>
       </c>
       <c r="Q8">
-        <v>224.5</v>
+        <v>261.6</v>
       </c>
       <c r="R8">
-        <v>941.1</v>
+        <v>1128</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1178,37 +1181,37 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V8">
-        <v>123</v>
+        <v>137.5</v>
       </c>
       <c r="W8">
-        <v>20111</v>
+        <v>24554</v>
       </c>
       <c r="X8">
         <v>1855</v>
       </c>
       <c r="Y8">
-        <v>363.4</v>
+        <v>424.9</v>
       </c>
       <c r="Z8">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="AA8">
-        <v>61.8</v>
+        <v>61.6</v>
       </c>
       <c r="AB8">
         <v>0.5</v>
       </c>
       <c r="AC8">
-        <v>524309</v>
+        <v>718054</v>
       </c>
       <c r="AD8">
-        <v>282.6</v>
+        <v>387.1</v>
       </c>
       <c r="AE8">
-        <v>1227.7</v>
+        <v>587.9</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1217,28 +1220,28 @@
         <v>0</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="AI8">
-        <v>300.5</v>
+        <v>577</v>
       </c>
       <c r="AJ8">
-        <v>36948</v>
+        <v>5325</v>
       </c>
       <c r="AK8">
         <v>1855</v>
       </c>
       <c r="AL8">
-        <v>849.8</v>
+        <v>599.4</v>
       </c>
       <c r="AM8">
-        <v>617</v>
+        <v>1198</v>
       </c>
       <c r="AN8">
-        <v>33.3</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="9" spans="1:41">
@@ -1247,91 +1250,91 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>113726</v>
+        <v>133705</v>
       </c>
       <c r="D9">
-        <v>1777</v>
+        <v>2089.1</v>
       </c>
       <c r="E9">
-        <v>2211.5</v>
+        <v>2543.2</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>177</v>
+        <v>203.2</v>
       </c>
       <c r="H9">
-        <v>1156</v>
+        <v>1350.5</v>
       </c>
       <c r="I9">
-        <v>2670.8</v>
+        <v>3082.2</v>
       </c>
       <c r="J9">
-        <v>13060</v>
+        <v>14651</v>
       </c>
       <c r="K9">
         <v>64</v>
       </c>
       <c r="L9">
-        <v>2145.8</v>
+        <v>2571.2</v>
       </c>
       <c r="M9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N9">
-        <v>82.8</v>
+        <v>81.2</v>
       </c>
       <c r="O9">
         <v>1.3</v>
       </c>
       <c r="P9">
-        <v>70087</v>
+        <v>75564</v>
       </c>
       <c r="Q9">
-        <v>1095.1</v>
+        <v>1180.7</v>
       </c>
       <c r="R9">
-        <v>5845.9</v>
+        <v>6059.6</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>28.5</v>
+        <v>29.8</v>
       </c>
       <c r="U9">
-        <v>222</v>
+        <v>241.5</v>
       </c>
       <c r="V9">
-        <v>483.5</v>
+        <v>580.8</v>
       </c>
       <c r="W9">
-        <v>46992</v>
+        <v>48717</v>
       </c>
       <c r="X9">
         <v>64</v>
       </c>
       <c r="Y9">
-        <v>1322.4</v>
+        <v>1453.2</v>
       </c>
       <c r="Z9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA9">
-        <v>82.8</v>
+        <v>81.2</v>
       </c>
       <c r="AB9">
         <v>1.3</v>
       </c>
       <c r="AC9">
-        <v>31219</v>
+        <v>40301</v>
       </c>
       <c r="AD9">
-        <v>487.8</v>
+        <v>629.7</v>
       </c>
       <c r="AE9">
-        <v>532.2</v>
+        <v>652.9</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1340,28 +1343,28 @@
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>361</v>
+        <v>436</v>
       </c>
       <c r="AI9">
-        <v>868.8</v>
+        <v>1140.5</v>
       </c>
       <c r="AJ9">
-        <v>1748</v>
+        <v>2204</v>
       </c>
       <c r="AK9">
         <v>64</v>
       </c>
       <c r="AL9">
-        <v>843.8</v>
+        <v>895.6</v>
       </c>
       <c r="AM9">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AN9">
-        <v>57.8</v>
+        <v>70.3</v>
       </c>
       <c r="AO9">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="10" spans="1:41">
@@ -1370,13 +1373,13 @@
         <v>26</v>
       </c>
       <c r="C10">
-        <v>13622</v>
+        <v>17435</v>
       </c>
       <c r="D10">
-        <v>400.6</v>
+        <v>512.8</v>
       </c>
       <c r="E10">
-        <v>976.8</v>
+        <v>1310.8</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1388,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>114.8</v>
+        <v>144.2</v>
       </c>
       <c r="J10">
-        <v>4250</v>
+        <v>6144</v>
       </c>
       <c r="K10">
         <v>34</v>
       </c>
       <c r="L10">
-        <v>973</v>
+        <v>1245.4</v>
       </c>
       <c r="M10">
         <v>14</v>
@@ -1409,13 +1412,13 @@
         <v>-0.4</v>
       </c>
       <c r="P10">
-        <v>2252</v>
+        <v>3239</v>
       </c>
       <c r="Q10">
-        <v>66.2</v>
+        <v>95.3</v>
       </c>
       <c r="R10">
-        <v>158.7</v>
+        <v>243.4</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1430,31 +1433,31 @@
         <v>9.199999999999999</v>
       </c>
       <c r="W10">
-        <v>648</v>
+        <v>1010</v>
       </c>
       <c r="X10">
         <v>34</v>
       </c>
       <c r="Y10">
-        <v>173.2</v>
+        <v>231.4</v>
       </c>
       <c r="Z10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA10">
-        <v>38.2</v>
+        <v>41.2</v>
       </c>
       <c r="AB10">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="AC10">
-        <v>4789</v>
+        <v>10338</v>
       </c>
       <c r="AD10">
-        <v>140.9</v>
+        <v>304.1</v>
       </c>
       <c r="AE10">
-        <v>395.3</v>
+        <v>679.3</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1463,28 +1466,28 @@
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="AJ10">
-        <v>1735</v>
+        <v>2668</v>
       </c>
       <c r="AK10">
         <v>34</v>
       </c>
       <c r="AL10">
-        <v>684.1</v>
+        <v>608.1</v>
       </c>
       <c r="AM10">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AN10">
-        <v>20.6</v>
+        <v>50</v>
       </c>
       <c r="AO10">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="11" spans="1:41">
@@ -1495,13 +1498,13 @@
         <v>24</v>
       </c>
       <c r="C11">
-        <v>1633</v>
+        <v>1741</v>
       </c>
       <c r="D11">
-        <v>544.3</v>
+        <v>580.3</v>
       </c>
       <c r="E11">
-        <v>942.8</v>
+        <v>1005.2</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1513,16 +1516,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>816.5</v>
+        <v>870.5</v>
       </c>
       <c r="J11">
-        <v>1633</v>
+        <v>1741</v>
       </c>
       <c r="K11">
         <v>3</v>
       </c>
       <c r="L11">
-        <v>1633</v>
+        <v>1741</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -1534,13 +1537,13 @@
         <v>-0.7</v>
       </c>
       <c r="P11">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="Q11">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="R11">
-        <v>237.3</v>
+        <v>256.3</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1552,16 +1555,16 @@
         <v>0</v>
       </c>
       <c r="V11">
-        <v>205.5</v>
+        <v>222</v>
       </c>
       <c r="W11">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="X11">
         <v>3</v>
       </c>
       <c r="Y11">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="Z11">
         <v>1</v>
@@ -1573,13 +1576,13 @@
         <v>-0.7</v>
       </c>
       <c r="AC11">
-        <v>675</v>
+        <v>824</v>
       </c>
       <c r="AD11">
-        <v>225</v>
+        <v>274.7</v>
       </c>
       <c r="AE11">
-        <v>389.7</v>
+        <v>475.7</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1591,16 +1594,16 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>337.5</v>
+        <v>412</v>
       </c>
       <c r="AJ11">
-        <v>675</v>
+        <v>824</v>
       </c>
       <c r="AK11">
         <v>3</v>
       </c>
       <c r="AL11">
-        <v>675</v>
+        <v>824</v>
       </c>
       <c r="AM11">
         <v>1</v>
@@ -1609,7 +1612,7 @@
         <v>33.3</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="12" spans="1:41">
@@ -1618,13 +1621,13 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>49307</v>
+        <v>54107</v>
       </c>
       <c r="D12">
-        <v>4108.9</v>
+        <v>4508.9</v>
       </c>
       <c r="E12">
-        <v>13695</v>
+        <v>15046.9</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1639,13 +1642,13 @@
         <v>28.2</v>
       </c>
       <c r="J12">
-        <v>47571</v>
+        <v>52263</v>
       </c>
       <c r="K12">
         <v>12</v>
       </c>
       <c r="L12">
-        <v>12326.8</v>
+        <v>13526.8</v>
       </c>
       <c r="M12">
         <v>4</v>
@@ -1657,13 +1660,13 @@
         <v>-0.7</v>
       </c>
       <c r="P12">
-        <v>21313</v>
+        <v>25083</v>
       </c>
       <c r="Q12">
-        <v>1776.1</v>
+        <v>2090.2</v>
       </c>
       <c r="R12">
-        <v>6018.6</v>
+        <v>7095.5</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1675,16 +1678,16 @@
         <v>0</v>
       </c>
       <c r="V12">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="W12">
-        <v>20884</v>
+        <v>24618</v>
       </c>
       <c r="X12">
         <v>12</v>
       </c>
       <c r="Y12">
-        <v>5328.2</v>
+        <v>6270.8</v>
       </c>
       <c r="Z12">
         <v>4</v>
@@ -1696,13 +1699,13 @@
         <v>-0.7</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>1169</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>265.7</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1714,22 +1717,25 @@
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>53.5</v>
       </c>
       <c r="AJ12">
-        <v>0</v>
+        <v>932</v>
       </c>
       <c r="AK12">
         <v>12</v>
       </c>
+      <c r="AL12">
+        <v>292.2</v>
+      </c>
       <c r="AM12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="AO12">
-        <v>-1.3</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="13" spans="1:41">
@@ -1740,13 +1746,13 @@
         <v>24</v>
       </c>
       <c r="C13">
-        <v>22160</v>
+        <v>30307</v>
       </c>
       <c r="D13">
-        <v>651.8</v>
+        <v>891.4</v>
       </c>
       <c r="E13">
-        <v>2551.9</v>
+        <v>3930.1</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1758,34 +1764,34 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>386</v>
+        <v>259</v>
       </c>
       <c r="J13">
-        <v>14888</v>
+        <v>22972</v>
       </c>
       <c r="K13">
         <v>34</v>
       </c>
       <c r="L13">
-        <v>1846.7</v>
+        <v>2755.2</v>
       </c>
       <c r="M13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N13">
-        <v>35.3</v>
+        <v>32.4</v>
       </c>
       <c r="O13">
-        <v>-0.7</v>
+        <v>-0.8</v>
       </c>
       <c r="P13">
-        <v>12319</v>
+        <v>19474</v>
       </c>
       <c r="Q13">
-        <v>362.3</v>
+        <v>572.8</v>
       </c>
       <c r="R13">
-        <v>1783.8</v>
+        <v>3030.3</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -1797,34 +1803,34 @@
         <v>0</v>
       </c>
       <c r="V13">
-        <v>52.8</v>
+        <v>36.5</v>
       </c>
       <c r="W13">
-        <v>10421</v>
+        <v>17700</v>
       </c>
       <c r="X13">
         <v>34</v>
       </c>
       <c r="Y13">
-        <v>1026.6</v>
+        <v>1770.4</v>
       </c>
       <c r="Z13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA13">
-        <v>35.3</v>
+        <v>32.4</v>
       </c>
       <c r="AB13">
-        <v>-0.6</v>
+        <v>-0.7</v>
       </c>
       <c r="AC13">
-        <v>22806</v>
+        <v>8507</v>
       </c>
       <c r="AD13">
-        <v>670.8</v>
+        <v>250.2</v>
       </c>
       <c r="AE13">
-        <v>1830.5</v>
+        <v>332.5</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1836,25 +1842,25 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="AJ13">
-        <v>6887</v>
+        <v>1112</v>
       </c>
       <c r="AK13">
         <v>34</v>
       </c>
       <c r="AL13">
-        <v>2850.8</v>
+        <v>531.7</v>
       </c>
       <c r="AM13">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AN13">
-        <v>23.5</v>
+        <v>47.1</v>
       </c>
       <c r="AO13">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="14" spans="1:41">
@@ -1863,13 +1869,13 @@
         <v>25</v>
       </c>
       <c r="C14">
-        <v>24056</v>
+        <v>29031</v>
       </c>
       <c r="D14">
-        <v>453.9</v>
+        <v>547.8</v>
       </c>
       <c r="E14">
-        <v>938.3</v>
+        <v>1114.2</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1878,19 +1884,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I14">
-        <v>570</v>
+        <v>655</v>
       </c>
       <c r="J14">
-        <v>5535</v>
+        <v>6402</v>
       </c>
       <c r="K14">
         <v>53</v>
       </c>
       <c r="L14">
-        <v>801.9</v>
+        <v>967.7</v>
       </c>
       <c r="M14">
         <v>30</v>
@@ -1902,13 +1908,13 @@
         <v>0.2</v>
       </c>
       <c r="P14">
-        <v>5594</v>
+        <v>7013</v>
       </c>
       <c r="Q14">
-        <v>105.5</v>
+        <v>132.3</v>
       </c>
       <c r="R14">
-        <v>203.1</v>
+        <v>253.7</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -1917,19 +1923,19 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V14">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="W14">
-        <v>915</v>
+        <v>1182</v>
       </c>
       <c r="X14">
         <v>53</v>
       </c>
       <c r="Y14">
-        <v>199.8</v>
+        <v>250.5</v>
       </c>
       <c r="Z14">
         <v>28</v>
@@ -1941,13 +1947,13 @@
         <v>0.1</v>
       </c>
       <c r="AC14">
-        <v>23088</v>
+        <v>23416</v>
       </c>
       <c r="AD14">
-        <v>435.6</v>
+        <v>441.8</v>
       </c>
       <c r="AE14">
-        <v>1116.3</v>
+        <v>498.8</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -1956,28 +1962,28 @@
         <v>0</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="AI14">
-        <v>566</v>
+        <v>723</v>
       </c>
       <c r="AJ14">
-        <v>7664</v>
+        <v>1627</v>
       </c>
       <c r="AK14">
         <v>53</v>
       </c>
       <c r="AL14">
-        <v>1049.5</v>
+        <v>688.7</v>
       </c>
       <c r="AM14">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AN14">
-        <v>41.5</v>
+        <v>64.2</v>
       </c>
       <c r="AO14">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="15" spans="1:41">
@@ -1986,31 +1992,31 @@
         <v>27</v>
       </c>
       <c r="C15">
-        <v>517</v>
+        <v>662</v>
       </c>
       <c r="D15">
-        <v>517</v>
+        <v>662</v>
       </c>
       <c r="F15">
-        <v>517</v>
+        <v>662</v>
       </c>
       <c r="G15">
-        <v>517</v>
+        <v>662</v>
       </c>
       <c r="H15">
-        <v>517</v>
+        <v>662</v>
       </c>
       <c r="I15">
-        <v>517</v>
+        <v>662</v>
       </c>
       <c r="J15">
-        <v>517</v>
+        <v>662</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>517</v>
+        <v>662</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -2022,31 +2028,31 @@
         <v>2</v>
       </c>
       <c r="P15">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="Q15">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="S15">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="T15">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="U15">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="V15">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="W15">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="X15">
         <v>1</v>
       </c>
       <c r="Y15">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="Z15">
         <v>1</v>
@@ -2058,31 +2064,31 @@
         <v>2</v>
       </c>
       <c r="AC15">
-        <v>794</v>
+        <v>931</v>
       </c>
       <c r="AD15">
-        <v>794</v>
+        <v>931</v>
       </c>
       <c r="AF15">
-        <v>794</v>
+        <v>931</v>
       </c>
       <c r="AG15">
-        <v>794</v>
+        <v>931</v>
       </c>
       <c r="AH15">
-        <v>794</v>
+        <v>931</v>
       </c>
       <c r="AI15">
-        <v>794</v>
+        <v>931</v>
       </c>
       <c r="AJ15">
-        <v>794</v>
+        <v>931</v>
       </c>
       <c r="AK15">
         <v>1</v>
       </c>
       <c r="AL15">
-        <v>794</v>
+        <v>931</v>
       </c>
       <c r="AM15">
         <v>1</v>
@@ -2091,7 +2097,7 @@
         <v>100</v>
       </c>
       <c r="AO15">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="16" spans="1:41">
@@ -2100,13 +2106,13 @@
         <v>26</v>
       </c>
       <c r="C16">
-        <v>5033</v>
+        <v>6181</v>
       </c>
       <c r="D16">
-        <v>838.8</v>
+        <v>1030.2</v>
       </c>
       <c r="E16">
-        <v>2012.4</v>
+        <v>2477.6</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2118,16 +2124,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>65.2</v>
+        <v>70.5</v>
       </c>
       <c r="J16">
-        <v>4946</v>
+        <v>6087</v>
       </c>
       <c r="K16">
         <v>6</v>
       </c>
       <c r="L16">
-        <v>2516.5</v>
+        <v>3090.5</v>
       </c>
       <c r="M16">
         <v>2</v>
@@ -2139,13 +2145,13 @@
         <v>-0.7</v>
       </c>
       <c r="P16">
-        <v>168</v>
+        <v>222</v>
       </c>
       <c r="Q16">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="R16">
-        <v>65.2</v>
+        <v>87.2</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -2160,13 +2166,13 @@
         <v>5.2</v>
       </c>
       <c r="W16">
-        <v>161</v>
+        <v>215</v>
       </c>
       <c r="X16">
         <v>6</v>
       </c>
       <c r="Y16">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="Z16">
         <v>2</v>
@@ -2178,13 +2184,13 @@
         <v>-0.7</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>1496</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>249.3</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>483.6</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2196,22 +2202,25 @@
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="AJ16">
-        <v>0</v>
+        <v>1208</v>
       </c>
       <c r="AK16">
         <v>6</v>
       </c>
+      <c r="AL16">
+        <v>748</v>
+      </c>
       <c r="AM16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN16">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="AO16">
-        <v>-1.3</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="17" spans="1:41">
@@ -2222,13 +2231,13 @@
         <v>24</v>
       </c>
       <c r="C17">
-        <v>112332</v>
+        <v>129860</v>
       </c>
       <c r="D17">
-        <v>826</v>
+        <v>954.9</v>
       </c>
       <c r="E17">
-        <v>1570.7</v>
+        <v>1883.2</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2240,34 +2249,34 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>916</v>
+        <v>970.2</v>
       </c>
       <c r="J17">
-        <v>8541</v>
+        <v>9810</v>
       </c>
       <c r="K17">
         <v>136</v>
       </c>
       <c r="L17">
-        <v>1702</v>
+        <v>2094.5</v>
       </c>
       <c r="M17">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="N17">
-        <v>48.5</v>
+        <v>45.6</v>
       </c>
       <c r="O17">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="P17">
-        <v>37235</v>
+        <v>43519</v>
       </c>
       <c r="Q17">
-        <v>273.8</v>
+        <v>320</v>
       </c>
       <c r="R17">
-        <v>780.2</v>
+        <v>915.6</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -2279,34 +2288,34 @@
         <v>0</v>
       </c>
       <c r="V17">
-        <v>158.8</v>
+        <v>189</v>
       </c>
       <c r="W17">
-        <v>6050</v>
+        <v>6901</v>
       </c>
       <c r="X17">
         <v>136</v>
       </c>
       <c r="Y17">
-        <v>564.2</v>
+        <v>690.8</v>
       </c>
       <c r="Z17">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AA17">
-        <v>48.5</v>
+        <v>46.3</v>
       </c>
       <c r="AB17">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="AC17">
-        <v>41868</v>
+        <v>76513</v>
       </c>
       <c r="AD17">
-        <v>307.9</v>
+        <v>562.6</v>
       </c>
       <c r="AE17">
-        <v>779.3</v>
+        <v>1107.1</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2315,28 +2324,28 @@
         <v>0</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>64.5</v>
       </c>
       <c r="AI17">
-        <v>74.5</v>
+        <v>817.2</v>
       </c>
       <c r="AJ17">
-        <v>6448</v>
+        <v>8295</v>
       </c>
       <c r="AK17">
         <v>136</v>
       </c>
       <c r="AL17">
-        <v>1131.6</v>
+        <v>1034</v>
       </c>
       <c r="AM17">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AN17">
-        <v>27.2</v>
+        <v>54.4</v>
       </c>
       <c r="AO17">
-        <v>-0.2</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="18" spans="1:41">
@@ -2345,13 +2354,13 @@
         <v>25</v>
       </c>
       <c r="C18">
-        <v>161873</v>
+        <v>187167</v>
       </c>
       <c r="D18">
-        <v>489</v>
+        <v>565.5</v>
       </c>
       <c r="E18">
-        <v>2716</v>
+        <v>2924.3</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -2363,34 +2372,34 @@
         <v>4</v>
       </c>
       <c r="I18">
-        <v>406</v>
+        <v>502</v>
       </c>
       <c r="J18">
-        <v>47580</v>
+        <v>50844</v>
       </c>
       <c r="K18">
         <v>331</v>
       </c>
       <c r="L18">
-        <v>941.1</v>
+        <v>1101</v>
       </c>
       <c r="M18">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N18">
-        <v>52</v>
+        <v>51.4</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>40496</v>
+        <v>47676</v>
       </c>
       <c r="Q18">
-        <v>122.3</v>
+        <v>144</v>
       </c>
       <c r="R18">
-        <v>565.2</v>
+        <v>690.9</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -2399,37 +2408,37 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V18">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="W18">
-        <v>8505</v>
+        <v>10903</v>
       </c>
       <c r="X18">
         <v>331</v>
       </c>
       <c r="Y18">
-        <v>228.8</v>
+        <v>272.4</v>
       </c>
       <c r="Z18">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AA18">
-        <v>53.5</v>
+        <v>52.9</v>
       </c>
       <c r="AB18">
         <v>0.1</v>
       </c>
       <c r="AC18">
-        <v>102366</v>
+        <v>111400</v>
       </c>
       <c r="AD18">
-        <v>309.3</v>
+        <v>336.6</v>
       </c>
       <c r="AE18">
-        <v>2070.5</v>
+        <v>527.2</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2438,28 +2447,28 @@
         <v>0</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="AI18">
-        <v>75</v>
+        <v>511</v>
       </c>
       <c r="AJ18">
-        <v>36858</v>
+        <v>4716</v>
       </c>
       <c r="AK18">
         <v>331</v>
       </c>
       <c r="AL18">
-        <v>1190.3</v>
+        <v>540.8</v>
       </c>
       <c r="AM18">
-        <v>86</v>
+        <v>206</v>
       </c>
       <c r="AN18">
-        <v>26</v>
+        <v>62.2</v>
       </c>
       <c r="AO18">
-        <v>-0.3</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="19" spans="1:41">
@@ -2468,13 +2477,13 @@
         <v>27</v>
       </c>
       <c r="C19">
-        <v>40940</v>
+        <v>48486</v>
       </c>
       <c r="D19">
-        <v>1860.9</v>
+        <v>2203.9</v>
       </c>
       <c r="E19">
-        <v>2537.7</v>
+        <v>2981.5</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -2483,19 +2492,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>978</v>
+        <v>1171</v>
       </c>
       <c r="I19">
-        <v>2382</v>
+        <v>2943.2</v>
       </c>
       <c r="J19">
-        <v>8682</v>
+        <v>10192</v>
       </c>
       <c r="K19">
         <v>22</v>
       </c>
       <c r="L19">
-        <v>2924.3</v>
+        <v>3463.3</v>
       </c>
       <c r="M19">
         <v>14</v>
@@ -2507,13 +2516,13 @@
         <v>0.5</v>
       </c>
       <c r="P19">
-        <v>23376</v>
+        <v>26758</v>
       </c>
       <c r="Q19">
-        <v>1062.5</v>
+        <v>1216.3</v>
       </c>
       <c r="R19">
-        <v>2805.7</v>
+        <v>3226.1</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -2522,19 +2531,19 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="V19">
-        <v>457.5</v>
+        <v>495.5</v>
       </c>
       <c r="W19">
-        <v>9692</v>
+        <v>11140</v>
       </c>
       <c r="X19">
         <v>22</v>
       </c>
       <c r="Y19">
-        <v>1669.7</v>
+        <v>1911.3</v>
       </c>
       <c r="Z19">
         <v>14</v>
@@ -2546,13 +2555,13 @@
         <v>0.5</v>
       </c>
       <c r="AC19">
-        <v>16518</v>
+        <v>9289</v>
       </c>
       <c r="AD19">
-        <v>750.8</v>
+        <v>422.2</v>
       </c>
       <c r="AE19">
-        <v>1327.9</v>
+        <v>665.9</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2561,28 +2570,28 @@
         <v>0</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AI19">
-        <v>1291.5</v>
+        <v>503.2</v>
       </c>
       <c r="AJ19">
-        <v>5316</v>
+        <v>1862</v>
       </c>
       <c r="AK19">
         <v>22</v>
       </c>
       <c r="AL19">
-        <v>1651.8</v>
+        <v>844.5</v>
       </c>
       <c r="AM19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN19">
-        <v>45.5</v>
+        <v>50</v>
       </c>
       <c r="AO19">
-        <v>0.5</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="20" spans="1:41">
@@ -2591,13 +2600,13 @@
         <v>26</v>
       </c>
       <c r="C20">
-        <v>396</v>
+        <v>462</v>
       </c>
       <c r="D20">
-        <v>79.2</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="E20">
-        <v>177.1</v>
+        <v>206.6</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -2612,13 +2621,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>396</v>
+        <v>462</v>
       </c>
       <c r="K20">
         <v>5</v>
       </c>
       <c r="L20">
-        <v>396</v>
+        <v>462</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -2630,13 +2639,13 @@
         <v>-1.3</v>
       </c>
       <c r="P20">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Q20">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="R20">
-        <v>8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -2651,13 +2660,13 @@
         <v>0</v>
       </c>
       <c r="W20">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="X20">
         <v>5</v>
       </c>
       <c r="Y20">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Z20">
         <v>1</v>
@@ -2669,13 +2678,13 @@
         <v>-1.2</v>
       </c>
       <c r="AC20">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="AD20">
-        <v>30.2</v>
+        <v>34.4</v>
       </c>
       <c r="AE20">
-        <v>67.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2690,13 +2699,13 @@
         <v>0</v>
       </c>
       <c r="AJ20">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="AK20">
         <v>5</v>
       </c>
       <c r="AL20">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="AM20">
         <v>1</v>
@@ -2705,7 +2714,7 @@
         <v>20</v>
       </c>
       <c r="AO20">
-        <v>-0.5</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="21" spans="1:41">
@@ -2716,13 +2725,13 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>48891</v>
+        <v>57195</v>
       </c>
       <c r="D21">
-        <v>776</v>
+        <v>907.9</v>
       </c>
       <c r="E21">
-        <v>1208.8</v>
+        <v>1430.9</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2731,37 +2740,37 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I21">
-        <v>1211.5</v>
+        <v>1372.5</v>
       </c>
       <c r="J21">
-        <v>5793</v>
+        <v>6588</v>
       </c>
       <c r="K21">
         <v>63</v>
       </c>
       <c r="L21">
-        <v>1396.9</v>
+        <v>1682.2</v>
       </c>
       <c r="M21">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N21">
-        <v>55.6</v>
+        <v>54</v>
       </c>
       <c r="O21">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="P21">
-        <v>6148</v>
+        <v>6842</v>
       </c>
       <c r="Q21">
-        <v>97.59999999999999</v>
+        <v>108.6</v>
       </c>
       <c r="R21">
-        <v>167.6</v>
+        <v>192.2</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -2773,34 +2782,34 @@
         <v>6</v>
       </c>
       <c r="V21">
-        <v>166.5</v>
+        <v>173.5</v>
       </c>
       <c r="W21">
-        <v>938</v>
+        <v>1056</v>
       </c>
       <c r="X21">
         <v>63</v>
       </c>
       <c r="Y21">
-        <v>170.8</v>
+        <v>195.5</v>
       </c>
       <c r="Z21">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA21">
-        <v>57.1</v>
+        <v>55.6</v>
       </c>
       <c r="AB21">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AC21">
-        <v>68378</v>
+        <v>40613</v>
       </c>
       <c r="AD21">
-        <v>1085.4</v>
+        <v>644.7</v>
       </c>
       <c r="AE21">
-        <v>2553.7</v>
+        <v>893.5</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2809,28 +2818,28 @@
         <v>0</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="AI21">
-        <v>944</v>
+        <v>1125.5</v>
       </c>
       <c r="AJ21">
-        <v>13336</v>
+        <v>3597</v>
       </c>
       <c r="AK21">
         <v>63</v>
       </c>
       <c r="AL21">
-        <v>2205.7</v>
+        <v>1097.6</v>
       </c>
       <c r="AM21">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="AN21">
-        <v>49.2</v>
+        <v>58.7</v>
       </c>
       <c r="AO21">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="22" spans="1:41">
@@ -2839,13 +2848,13 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>42573</v>
+        <v>50953</v>
       </c>
       <c r="D22">
-        <v>327.5</v>
+        <v>391.9</v>
       </c>
       <c r="E22">
-        <v>714.4</v>
+        <v>881.1</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2857,34 +2866,34 @@
         <v>16.5</v>
       </c>
       <c r="I22">
-        <v>390.2</v>
+        <v>468.5</v>
       </c>
       <c r="J22">
-        <v>4906</v>
+        <v>6478</v>
       </c>
       <c r="K22">
         <v>130</v>
       </c>
       <c r="L22">
-        <v>575.3</v>
+        <v>679.4</v>
       </c>
       <c r="M22">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N22">
-        <v>56.9</v>
+        <v>57.7</v>
       </c>
       <c r="O22">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="P22">
-        <v>11281</v>
+        <v>13563</v>
       </c>
       <c r="Q22">
-        <v>86.8</v>
+        <v>104.3</v>
       </c>
       <c r="R22">
-        <v>319.8</v>
+        <v>400.8</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -2896,16 +2905,16 @@
         <v>3.5</v>
       </c>
       <c r="V22">
-        <v>44.2</v>
+        <v>54.5</v>
       </c>
       <c r="W22">
-        <v>3183</v>
+        <v>4083</v>
       </c>
       <c r="X22">
         <v>130</v>
       </c>
       <c r="Y22">
-        <v>150.4</v>
+        <v>180.8</v>
       </c>
       <c r="Z22">
         <v>75</v>
@@ -2917,13 +2926,13 @@
         <v>0.3</v>
       </c>
       <c r="AC22">
-        <v>31156</v>
+        <v>46084</v>
       </c>
       <c r="AD22">
-        <v>239.7</v>
+        <v>354.5</v>
       </c>
       <c r="AE22">
-        <v>503.8</v>
+        <v>544</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2932,28 +2941,28 @@
         <v>0</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>123.5</v>
       </c>
       <c r="AI22">
-        <v>279.5</v>
+        <v>491</v>
       </c>
       <c r="AJ22">
-        <v>3096</v>
+        <v>2486</v>
       </c>
       <c r="AK22">
         <v>130</v>
       </c>
       <c r="AL22">
-        <v>610.9</v>
+        <v>576</v>
       </c>
       <c r="AM22">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AN22">
-        <v>39.2</v>
+        <v>61.5</v>
       </c>
       <c r="AO22">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="23" spans="1:41">
@@ -2962,13 +2971,13 @@
         <v>27</v>
       </c>
       <c r="C23">
-        <v>4792</v>
+        <v>5607</v>
       </c>
       <c r="D23">
-        <v>958.4</v>
+        <v>1121.4</v>
       </c>
       <c r="E23">
-        <v>1362.2</v>
+        <v>1620.1</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -2977,19 +2986,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="I23">
-        <v>1419</v>
+        <v>1605</v>
       </c>
       <c r="J23">
-        <v>3155</v>
+        <v>3762</v>
       </c>
       <c r="K23">
         <v>5</v>
       </c>
       <c r="L23">
-        <v>1597.3</v>
+        <v>1869</v>
       </c>
       <c r="M23">
         <v>3</v>
@@ -3001,13 +3010,13 @@
         <v>0.4</v>
       </c>
       <c r="P23">
-        <v>1418</v>
+        <v>1594</v>
       </c>
       <c r="Q23">
-        <v>283.6</v>
+        <v>318.8</v>
       </c>
       <c r="R23">
-        <v>537.6</v>
+        <v>598.8</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -3019,16 +3028,16 @@
         <v>7</v>
       </c>
       <c r="V23">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="W23">
-        <v>1236</v>
+        <v>1378</v>
       </c>
       <c r="X23">
         <v>5</v>
       </c>
       <c r="Y23">
-        <v>472.7</v>
+        <v>531.3</v>
       </c>
       <c r="Z23">
         <v>3</v>
@@ -3040,13 +3049,13 @@
         <v>0.4</v>
       </c>
       <c r="AC23">
-        <v>3056</v>
+        <v>2097</v>
       </c>
       <c r="AD23">
-        <v>611.2</v>
+        <v>419.4</v>
       </c>
       <c r="AE23">
-        <v>621.9</v>
+        <v>492.9</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -3055,19 +3064,19 @@
         <v>0</v>
       </c>
       <c r="AH23">
-        <v>669</v>
+        <v>219</v>
       </c>
       <c r="AI23">
-        <v>950</v>
+        <v>798</v>
       </c>
       <c r="AJ23">
-        <v>1437</v>
+        <v>1080</v>
       </c>
       <c r="AK23">
         <v>5</v>
       </c>
       <c r="AL23">
-        <v>1018.7</v>
+        <v>699</v>
       </c>
       <c r="AM23">
         <v>3</v>
@@ -3076,7 +3085,7 @@
         <v>60</v>
       </c>
       <c r="AO23">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="24" spans="1:41">
@@ -3085,13 +3094,13 @@
         <v>26</v>
       </c>
       <c r="C24">
-        <v>1047</v>
+        <v>1292</v>
       </c>
       <c r="D24">
-        <v>116.3</v>
+        <v>143.6</v>
       </c>
       <c r="E24">
-        <v>228.5</v>
+        <v>301.8</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -3103,16 +3112,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J24">
-        <v>670</v>
+        <v>906</v>
       </c>
       <c r="K24">
         <v>9</v>
       </c>
       <c r="L24">
-        <v>261.8</v>
+        <v>323</v>
       </c>
       <c r="M24">
         <v>4</v>
@@ -3124,13 +3133,13 @@
         <v>-0.3</v>
       </c>
       <c r="P24">
-        <v>382</v>
+        <v>412</v>
       </c>
       <c r="Q24">
-        <v>42.4</v>
+        <v>45.8</v>
       </c>
       <c r="R24">
-        <v>94.8</v>
+        <v>104.5</v>
       </c>
       <c r="S24">
         <v>0</v>
@@ -3142,16 +3151,16 @@
         <v>0</v>
       </c>
       <c r="V24">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="W24">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="X24">
         <v>9</v>
       </c>
       <c r="Y24">
-        <v>127.3</v>
+        <v>137.3</v>
       </c>
       <c r="Z24">
         <v>3</v>
@@ -3163,43 +3172,43 @@
         <v>-0.7</v>
       </c>
       <c r="AC24">
-        <v>2286</v>
+        <v>3001</v>
       </c>
       <c r="AD24">
-        <v>254</v>
+        <v>333.4</v>
       </c>
       <c r="AE24">
-        <v>333.6</v>
+        <v>450.5</v>
       </c>
       <c r="AF24">
         <v>0</v>
       </c>
       <c r="AG24">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AH24">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="AI24">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="AJ24">
-        <v>965</v>
+        <v>1398</v>
       </c>
       <c r="AK24">
         <v>9</v>
       </c>
       <c r="AL24">
-        <v>457.2</v>
+        <v>375.1</v>
       </c>
       <c r="AM24">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AN24">
-        <v>55.6</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="AO24">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>
